--- a/scores/mutual_info_score.xlsx
+++ b/scores/mutual_info_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.003826144423054</v>
+        <v>1.006977203152998</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.003084661588679</v>
+        <v>1.006948267459411</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9670511623060651</v>
+        <v>0.9668438215365107</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9283076854517507</v>
+        <v>0.9255083555281267</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.927044663707254</v>
+        <v>0.9236730540546008</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9010423280912141</v>
+        <v>0.9017401453117957</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8524375779476383</v>
+        <v>0.8531494090015377</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8137963380616453</v>
+        <v>0.8134354415936338</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8125569387423175</v>
+        <v>0.8126587701946244</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8079347331934468</v>
+        <v>0.8086443890966715</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7084784919380107</v>
+        <v>0.7082786690981573</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6114020772838487</v>
+        <v>0.6108661164454769</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4813369412246598</v>
+        <v>0.4814809035309091</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4619863364489074</v>
+        <v>0.4617459890958768</v>
       </c>
     </row>
     <row r="18">
@@ -607,436 +607,516 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.38374982332485</v>
+        <v>0.3835510111003524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(0.0, 1.401]</t>
+          <t>R_PRES_cat_(237.5, inf]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3781244669073642</v>
+        <v>0.3716086434858474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(27.1, inf]</t>
+          <t>R_NO2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3754676590989812</v>
+        <v>0.3377803911239479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(2.16, inf]</t>
+          <t>R_CHLA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3752669905427102</v>
+        <v>0.3326434700909013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(237.5, inf]</t>
+          <t>R_PRES_cat_(0.0, 95.5]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3716086434858474</v>
+        <v>0.280117877821541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(42.925, inf]</t>
+          <t>R_Depth_cat_(0.5, 95.5]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3472915503953833</v>
+        <v>0.2801020785869182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(0.0, 16.309]</t>
+          <t>R_CHLA_missing</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3432890052345445</v>
+        <v>0.2776682135190787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R_NO2</t>
+          <t>R_PHAEO_missing</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3387661410958884</v>
+        <v>0.2775888890645888</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA</t>
+          <t>R_SIO3_missing</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3330514635558828</v>
+        <v>0.2664385641559459</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(0.0, 95.5]</t>
+          <t>R_Depth_cat_(284.5, 648.5]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.280117877821541</v>
+        <v>0.2540358566318008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(0.5, 95.5]</t>
+          <t>R_SIO3_cat_(0.0, 12.75]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2801020785869182</v>
+        <v>0.2497878111313154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(284.5, 648.5]</t>
+          <t>R_NO3_missing</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2540358566318008</v>
+        <v>0.2462548780610225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(0.0, 14.9]</t>
+          <t>R_NO2_missing</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2295235629148793</v>
+        <v>0.2452910303327724</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.661, 2.16]</t>
+          <t>R_PO4_cat_(0.0, 1.305]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1642814516907802</v>
+        <v>0.2432200620933505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(25.304, 42.925]</t>
+          <t>R_CHLA_cat_(0.055, 1.225]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1641501937065739</v>
+        <v>0.2344462880941289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R_NH4</t>
+          <t>R_SIO3_cat_(34.95, inf]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1552653259884478</v>
+        <v>0.2037250638602928</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.0195, 0.82]</t>
+          <t>R_NO3_cat_(27.15, inf]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1491005793994913</v>
+        <v>0.2002745737790705</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(20.0, 27.1]</t>
+          <t>R_PO4_missing</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1401274084924424</v>
+        <v>0.1930013308330125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(183.5, 284.5]</t>
+          <t>R_PO4_cat_(2.305, inf]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1115659824669459</v>
+        <v>0.1714222999662356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(648.5, inf]</t>
+          <t>R_NO3_cat_(0.0, 13.05]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1027576691689447</v>
+        <v>0.1587321508522999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(148.5, 237.5]</t>
+          <t>R_NH4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09270342944413623</v>
+        <v>0.1562013961879556</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.05, 0.12]</t>
+          <t>R_PHAEO_cat_(0.095, 1.395]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08514135637629749</v>
+        <v>0.1472445021647082</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(16.309, 25.304]</t>
+          <t>R_PO4_cat_(1.745, 2.305]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.07737025189909352</v>
+        <v>0.1163871566621286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.14, inf]</t>
+          <t>R_Depth_cat_(183.5, 284.5]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.06579728611534641</v>
+        <v>0.1115659824669459</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.00958, 0.14]</t>
+          <t>R_Depth_cat_(648.5, inf]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06492352648214972</v>
+        <v>0.1027576691689447</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.158, inf]</t>
+          <t>R_SIO3_cat_(22.95, 34.95]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05550161135706433</v>
+        <v>0.09651519636407224</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(14.9, 20.0]</t>
+          <t>R_PRES_cat_(148.5, 237.5]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0513904763936146</v>
+        <v>0.09270342944413623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.401, 1.661]</t>
+          <t>R_NO3_cat_(20.95, 27.15]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.05137523324483273</v>
+        <v>0.08896620217523243</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(95.5, 148.5]</t>
+          <t>R_NO2_cat_(0.055, inf]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04541620805306668</v>
+        <v>0.06692540220431842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.12, inf]</t>
+          <t>R_SIO3_cat_(12.75, 22.95]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.04102349511054837</v>
+        <v>0.06487139832286259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(147.5, 183.5]</t>
+          <t>R_PHAEO_cat_(0.0, 0.065]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.03433262673767601</v>
+        <v>0.0599879447975864</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.82, inf]</t>
+          <t>R_PO4_cat_(1.305, 1.745]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.03222996564427238</v>
+        <v>0.05433349845809676</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(115.5, 147.5]</t>
+          <t>R_NO3_cat_(13.05, 20.95]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02908902991871032</v>
+        <v>0.05368238187447161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(4.22e-05, 0.0195]</t>
+          <t>R_NH4_missing</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0228648347959155</v>
+        <v>0.04565057406119721</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(95.5, 115.5]</t>
+          <t>R_PRES_cat_(95.5, 148.5]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01886583611981263</v>
+        <v>0.04541620805306668</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.01, 0.05]</t>
+          <t>R_NO2_cat_(0.0, 0.015]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01725881342585756</v>
+        <v>0.03549855199341589</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.00998, 0.0396]</t>
+          <t>R_Depth_cat_(147.5, 183.5]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01718492684093542</v>
+        <v>0.03433262673767601</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.0396, 0.158]</t>
+          <t>R_Depth_cat_(115.5, 147.5]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01293646436862428</v>
+        <v>0.02908902991871032</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.0, 0.01]</t>
+          <t>R_CHLA_cat_(0.015, 0.055]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01108779271955274</v>
+        <v>0.02567501297862362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.0, 0.00998]</t>
+          <t>R_CHLA_cat_(0.0, 0.015]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.006807496705929061</v>
+        <v>0.02520011490933571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(2.9e-05, 0.00958]</t>
+          <t>R_CHLA_cat_(1.225, inf]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.002004082731945633</v>
+        <v>0.02129004426448466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.0, 2.9e-05]</t>
+          <t>R_PHAEO_cat_(0.065, 0.095]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0002107596067831841</v>
+        <v>0.02021790332730644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.0, 4.22e-05]</t>
+          <t>R_Depth_cat_(95.5, 115.5]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002070262014396418</v>
+        <v>0.01886583611981263</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
+          <t>R_NO2_cat_(0.025, 0.055]</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01873275452343104</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>R_NH4_cat_(0.045, inf]</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01855095397414641</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>R_NO2_cat_(0.015, 0.025]</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01424217947157813</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>R_NH4_cat_(0.005, 0.045]</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.007935666593030577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>R_PHAEO_cat_(1.395, inf]</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.003663893863856682</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
           <t>R_Depth_cat_(0.0, 0.5]</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B66" t="n">
+        <v>0.0001934032359568461</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>R_NH4_cat_(0.0, 0.005]</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0001934032359568461</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>R_PRES_missing</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0001934032359568461</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>R_Depth_missing</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>0.0001934032359568461</v>
       </c>
     </row>

--- a/scores/mutual_info_score.xlsx
+++ b/scores/mutual_info_score.xlsx
@@ -443,21 +443,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R_SIGMA</t>
+          <t>R_O2Sat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.006977203152998</v>
+        <v>1.006836077779123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R_O2Sat</t>
+          <t>R_SIGMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.006948267459411</v>
+        <v>1.005501800247813</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9668438215365107</v>
+        <v>0.9670544467811792</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9255083555281267</v>
+        <v>0.9251166719755624</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9017401453117957</v>
+        <v>0.9016924686484797</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531494090015377</v>
+        <v>0.8527958125161303</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8134354415936338</v>
+        <v>0.8140804834629254</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8126587701946244</v>
+        <v>0.8129139910588234</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8086443890966715</v>
+        <v>0.8084821340224746</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7082786690981573</v>
+        <v>0.708680047874898</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6108661164454769</v>
+        <v>0.6109953888122313</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4814809035309091</v>
+        <v>0.4814900176575083</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4617459890958768</v>
+        <v>0.4618885236737409</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3835510111003524</v>
+        <v>0.3838818225572878</v>
       </c>
     </row>
     <row r="19">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3377803911239479</v>
+        <v>0.3377153067682697</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3326434700909013</v>
+        <v>0.3326282298582584</v>
       </c>
     </row>
     <row r="22">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1562013961879556</v>
+        <v>0.1559061805736111</v>
       </c>
     </row>
     <row r="39">
@@ -1083,7 +1083,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(0.0, 0.5]</t>
+          <t>R_NH4_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1093,7 +1093,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.0, 0.005]</t>
+          <t>R_PRES_missing</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1103,7 +1103,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_missing</t>
+          <t>R_Depth_cat_(0.0, 0.5]</t>
         </is>
       </c>
       <c r="B68" t="n">

--- a/scores/mutual_info_score.xlsx
+++ b/scores/mutual_info_score.xlsx
@@ -443,31 +443,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R_O2Sat</t>
+          <t>R_SIGMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.006836077779123</v>
+        <v>1.00113784631754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R_SIGMA</t>
+          <t>R_SVA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.005501800247813</v>
+        <v>0.9700038932901691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R_SVA</t>
+          <t>R_O2_sqrt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9670544467811792</v>
+        <v>0.8679004758544364</v>
       </c>
     </row>
     <row r="5">
@@ -477,87 +477,87 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9251166719755624</v>
+        <v>0.8669041211671003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R_O2_sqrt</t>
+          <t>R_O2Sat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9236730540546008</v>
+        <v>0.8446069061277681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R_PO4</t>
+          <t>R_PRES</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9016924686484797</v>
+        <v>0.8140804834629254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3</t>
+          <t>R_Depth</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8527958125161303</v>
+        <v>0.8084821340224746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R_PRES</t>
+          <t>R_TEMP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8140804834629254</v>
+        <v>0.7157488614559586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R_NO3</t>
+          <t>R_SIO3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8129139910588234</v>
+        <v>0.6371785264768945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R_Depth</t>
+          <t>R_PO4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8084821340224746</v>
+        <v>0.6190461420833087</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R_TEMP</t>
+          <t>R_DYNHT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.708680047874898</v>
+        <v>0.6024657810405341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R_DYNHT</t>
+          <t>R_NO3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6109953888122313</v>
+        <v>0.5854542764042137</v>
       </c>
     </row>
     <row r="14">
@@ -603,151 +603,151 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO</t>
+          <t>R_PRES_cat_(237.5, inf]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3838818225572878</v>
+        <v>0.3716086434858474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(237.5, inf]</t>
+          <t>R_CHLA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3716086434858474</v>
+        <v>0.3348364545657914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R_NO2</t>
+          <t>R_PRES_cat_(0.0, 95.5]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3377153067682697</v>
+        <v>0.280117877821541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA</t>
+          <t>R_Depth_cat_(0.5, 95.5]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3326282298582584</v>
+        <v>0.2801020785869182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(0.0, 95.5]</t>
+          <t>R_CHLA_missing</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.280117877821541</v>
+        <v>0.2776682135190787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(0.5, 95.5]</t>
+          <t>R_PHAEO_missing</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2801020785869182</v>
+        <v>0.2775888890645888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_missing</t>
+          <t>R_PHAEO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2776682135190787</v>
+        <v>0.267651975060732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_missing</t>
+          <t>R_SIO3_missing</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2775888890645888</v>
+        <v>0.2664385641559459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_missing</t>
+          <t>R_Depth_cat_(284.5, 648.5]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2664385641559459</v>
+        <v>0.2540358566318008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(284.5, 648.5]</t>
+          <t>R_SIO3_cat_(0.0, 12.75]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2540358566318008</v>
+        <v>0.2497878111313154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(0.0, 12.75]</t>
+          <t>R_NO3_missing</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2497878111313154</v>
+        <v>0.2462548780610225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_missing</t>
+          <t>R_NO2_missing</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2462548780610225</v>
+        <v>0.2452910303327724</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_missing</t>
+          <t>R_PO4_cat_(0.0, 1.305]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2452910303327724</v>
+        <v>0.2432200620933505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(0.0, 1.305]</t>
+          <t>R_CHLA_cat_(0.055, 1.225]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2432200620933505</v>
+        <v>0.2344462880941289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.055, 1.225]</t>
+          <t>R_NO2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2344462880941289</v>
+        <v>0.2045751062731185</v>
       </c>
     </row>
     <row r="33">
@@ -803,151 +803,151 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R_NH4</t>
+          <t>R_PHAEO_cat_(0.095, 1.395]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1559061805736111</v>
+        <v>0.1472445021647082</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.095, 1.395]</t>
+          <t>R_PO4_cat_(1.745, 2.305]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1472445021647082</v>
+        <v>0.1163871566621286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.745, 2.305]</t>
+          <t>R_Depth_cat_(183.5, 284.5]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1163871566621286</v>
+        <v>0.1115659824669459</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(183.5, 284.5]</t>
+          <t>R_Depth_cat_(648.5, inf]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1115659824669459</v>
+        <v>0.1027576691689447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(648.5, inf]</t>
+          <t>R_SIO3_cat_(22.95, 34.95]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1027576691689447</v>
+        <v>0.09651519636407224</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(22.95, 34.95]</t>
+          <t>R_PRES_cat_(148.5, 237.5]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09651519636407224</v>
+        <v>0.09270342944413623</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(148.5, 237.5]</t>
+          <t>R_NO3_cat_(20.95, 27.15]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09270342944413623</v>
+        <v>0.08896620217523243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(20.95, 27.15]</t>
+          <t>R_NO2_cat_(0.055, inf]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08896620217523243</v>
+        <v>0.06692540220431842</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.055, inf]</t>
+          <t>R_SIO3_cat_(12.75, 22.95]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06692540220431842</v>
+        <v>0.06487139832286259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(12.75, 22.95]</t>
+          <t>R_PHAEO_cat_(0.0, 0.065]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06487139832286259</v>
+        <v>0.0599879447975864</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.0, 0.065]</t>
+          <t>R_PO4_cat_(1.305, 1.745]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0599879447975864</v>
+        <v>0.05433349845809676</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.305, 1.745]</t>
+          <t>R_NO3_cat_(13.05, 20.95]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05433349845809676</v>
+        <v>0.05368238187447161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(13.05, 20.95]</t>
+          <t>R_NH4_missing</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.05368238187447161</v>
+        <v>0.04565057406119721</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_missing</t>
+          <t>R_PRES_cat_(95.5, 148.5]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04565057406119721</v>
+        <v>0.04541620805306668</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(95.5, 148.5]</t>
+          <t>R_NH4</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.04541620805306668</v>
+        <v>0.04169680264435049</v>
       </c>
     </row>
     <row r="53">

--- a/scores/mutual_info_score.xlsx
+++ b/scores/mutual_info_score.xlsx
@@ -443,221 +443,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R_SIGMA</t>
+          <t>R_SVA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.00113784631754</v>
+        <v>1.609750699010758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R_SVA</t>
+          <t>R_SIGMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9700038932901691</v>
+        <v>1.596645417631449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R_O2_sqrt</t>
+          <t>R_PRES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8679004758544364</v>
+        <v>1.099343076431947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>R_O2</t>
+          <t>R_Depth</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8669041211671003</v>
+        <v>1.090340222332441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R_O2Sat</t>
+          <t>R_DYNHT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8446069061277681</v>
+        <v>0.8480586774586927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R_PRES</t>
+          <t>R_O2Sat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8140804834629254</v>
+        <v>0.7307675355911778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R_Depth</t>
+          <t>R_SALINITY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8084821340224746</v>
+        <v>0.6860829430491862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R_TEMP</t>
+          <t>R_O2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7157488614559586</v>
+        <v>0.6721862535445755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3</t>
+          <t>R_O2_sqrt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6371785264768945</v>
+        <v>0.6690594121224214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R_PO4</t>
+          <t>R_SIO3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6190461420833087</v>
+        <v>0.6419378281297998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R_DYNHT</t>
+          <t>R_NO3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6024657810405341</v>
+        <v>0.6165538123460834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R_NO3</t>
+          <t>R_PO4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5854542764042137</v>
+        <v>0.5795183970604816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rho</t>
+          <t>R_PRES_cat_(317.5, inf]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4966383349647057</v>
+        <v>0.4105392903227749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lon_Dec</t>
+          <t>R_Depth_cat_(315.5, 671.5]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4814900176575083</v>
+        <v>0.3216905112280968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Phi</t>
+          <t>R_PRES_cat_(118.5, 317.5]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4642787908401909</v>
+        <v>0.2654625927348184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Lat_Dec</t>
+          <t>R_CHLA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4618885236737409</v>
+        <v>0.2581485502488778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(237.5, inf]</t>
+          <t>R_PRES_cat_(0.0, 47.5]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3716086434858474</v>
+        <v>0.2185180768115429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA</t>
+          <t>R_Depth_cat_(167.5, 315.5]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3348364545657914</v>
+        <v>0.2010980117773589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(0.0, 95.5]</t>
+          <t>Rho</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.280117877821541</v>
+        <v>0.1996553383840842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(0.5, 95.5]</t>
+          <t>Phi</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2801020785869182</v>
+        <v>0.1977067731594886</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_missing</t>
+          <t>Lat_Dec</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2776682135190787</v>
+        <v>0.1945023012157439</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_missing</t>
+          <t>Lon_Dec</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2775888890645888</v>
+        <v>0.1870947806485717</v>
       </c>
     </row>
     <row r="24">
@@ -667,457 +667,457 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.267651975060732</v>
+        <v>0.1794044741179017</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_missing</t>
+          <t>R_PO4_cat_(0.0, 0.505]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2664385641559459</v>
+        <v>0.1653543377017632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(284.5, 648.5]</t>
+          <t>R_Depth_cat_(671.5, inf]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2540358566318008</v>
+        <v>0.1641868362689005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(0.0, 12.75]</t>
+          <t>R_CHLA_cat_(0.065, inf]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2497878111313154</v>
+        <v>0.1416550204579377</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_missing</t>
+          <t>R_SIO3_cat_(0.0, 3.55]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2462548780610225</v>
+        <v>0.138284673456158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_missing</t>
+          <t>R_SIO3_cat_(10.05, 42.05]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2452910303327724</v>
+        <v>0.1367859597986878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(0.0, 1.305]</t>
+          <t>R_PRES_cat_(47.5, 118.5]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2432200620933505</v>
+        <v>0.1361979903994537</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.055, 1.225]</t>
+          <t>R_PO4_cat_(1.025, 2.505]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2344462880941289</v>
+        <v>0.135403886582371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R_NO2</t>
+          <t>R_NO3_cat_(10.85, 30.05]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2045751062731185</v>
+        <v>0.1293673576386802</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(34.95, inf]</t>
+          <t>R_NO2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2037250638602928</v>
+        <v>0.122461786521515</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(27.15, inf]</t>
+          <t>R_SIO3_cat_(42.05, inf]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2002745737790705</v>
+        <v>0.1215977860002255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_missing</t>
+          <t>R_NO3_cat_(30.05, inf]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1930013308330125</v>
+        <v>0.1207839388648819</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(2.305, inf]</t>
+          <t>R_CHLA_missing</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1714222999662356</v>
+        <v>0.1164335007261093</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(0.0, 13.05]</t>
+          <t>R_PHAEO_missing</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1587321508522999</v>
+        <v>0.1164146859655759</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.095, 1.395]</t>
+          <t>R_PO4_cat_(2.505, inf]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1472445021647082</v>
+        <v>0.1140319690784675</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.745, 2.305]</t>
+          <t>R_Depth_cat_(15.5, 47.5]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1163871566621286</v>
+        <v>0.1007444114331513</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(183.5, 284.5]</t>
+          <t>R_Depth_cat_(0.0, 15.5]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1115659824669459</v>
+        <v>0.09555513754105482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(648.5, inf]</t>
+          <t>R_NO3_cat_(0.55, 10.85]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1027576691689447</v>
+        <v>0.08784385358204427</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(22.95, 34.95]</t>
+          <t>R_Depth_cat_(68.5, 117.5]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09651519636407224</v>
+        <v>0.0857103053447239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(148.5, 237.5]</t>
+          <t>R_Depth_cat_(117.5, 167.5]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09270342944413623</v>
+        <v>0.07964900820546439</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(20.95, 27.15]</t>
+          <t>R_PHAEO_cat_(0.175, inf]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.08896620217523243</v>
+        <v>0.07268049461464421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.055, inf]</t>
+          <t>R_PHAEO_cat_(0.015, 0.175]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.06692540220431842</v>
+        <v>0.07261063487385599</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R_SIO3_cat_(12.75, 22.95]</t>
+          <t>R_SIO3_cat_(3.55, 10.05]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06487139832286259</v>
+        <v>0.07049320499365841</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.0, 0.065]</t>
+          <t>R_PO4_cat_(0.505, 1.025]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0599879447975864</v>
+        <v>0.0696624017078209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R_PO4_cat_(1.305, 1.745]</t>
+          <t>R_NO2_cat_(0.045, 1.665]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.05433349845809676</v>
+        <v>0.06551659473177196</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R_NO3_cat_(13.05, 20.95]</t>
+          <t>R_NO3_cat_(0.0, 0.55]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05368238187447161</v>
+        <v>0.05601555341122921</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_missing</t>
+          <t>R_Depth_cat_(47.5, 68.5]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04565057406119721</v>
+        <v>0.05051787291567988</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_cat_(95.5, 148.5]</t>
+          <t>R_CHLA_cat_(0.015, 0.055]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04541620805306668</v>
+        <v>0.03462410974230012</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>R_NH4</t>
+          <t>R_CHLA_cat_(0.0, 0.015]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.04169680264435049</v>
+        <v>0.03001835980364964</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.0, 0.015]</t>
+          <t>R_NO3_missing</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03549855199341589</v>
+        <v>0.02816587468095744</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(147.5, 183.5]</t>
+          <t>R_NO2_missing</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03433262673767601</v>
+        <v>0.02623210282916388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(115.5, 147.5]</t>
+          <t>R_SIO3_missing</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02908902991871032</v>
+        <v>0.02605017401867449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.015, 0.055]</t>
+          <t>R_NO2_cat_(0.005, 0.045]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02567501297862362</v>
+        <v>0.02269240606203904</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(0.0, 0.015]</t>
+          <t>R_NH4</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02520011490933571</v>
+        <v>0.01452216066669365</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>R_CHLA_cat_(1.225, inf]</t>
+          <t>R_PO4_missing</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02129004426448466</v>
+        <v>0.01313009009128452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.065, 0.095]</t>
+          <t>R_NH4_missing</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02021790332730644</v>
+        <v>0.007756838296386848</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(95.5, 115.5]</t>
+          <t>R_NH4_cat_(0.045, inf]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01886583611981263</v>
+        <v>0.006933858933925396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.025, 0.055]</t>
+          <t>R_PHAEO_cat_(0.005, 0.015]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01873275452343104</v>
+        <v>0.005219198133331715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.045, inf]</t>
+          <t>R_CHLA_cat_(0.055, 0.065]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01855095397414641</v>
+        <v>0.004347749621072428</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.015, 0.025]</t>
+          <t>R_NH4_cat_(0.005, 0.045]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01424217947157813</v>
+        <v>0.001570615511120144</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.005, 0.045]</t>
+          <t>R_NO2_cat_(1.665, inf]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.007935666593030577</v>
+        <v>0.0003197932116768554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(1.395, inf]</t>
+          <t>R_NO2_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003663893863856682</v>
+        <v>6.8782098306297e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.0, 0.005]</t>
+          <t>R_PRES_missing</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001934032359568461</v>
+        <v>6.8782098306297e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_missing</t>
+          <t>R_PHAEO_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0001934032359568461</v>
+        <v>6.8782098306297e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_cat_(0.0, 0.5]</t>
+          <t>R_Depth_missing</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0001934032359568461</v>
+        <v>6.8782098306297e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_missing</t>
+          <t>R_NH4_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0001934032359568461</v>
+        <v>6.8782098306297e-05</v>
       </c>
     </row>
   </sheetData>

--- a/scores/mutual_info_score.xlsx
+++ b/scores/mutual_info_score.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.609750699010758</v>
+        <v>1.61024410689524</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.596645417631449</v>
+        <v>1.597568589886961</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.099343076431947</v>
+        <v>1.099207156548527</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.090340222332441</v>
+        <v>1.090469780744899</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8480586774586927</v>
+        <v>0.848832034405631</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7307675355911778</v>
+        <v>0.7311660738309218</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6860829430491862</v>
+        <v>0.6864505718825873</v>
       </c>
     </row>
     <row r="9">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6419378281297998</v>
+        <v>0.6419942656059643</v>
       </c>
     </row>
     <row r="12">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5795183970604816</v>
+        <v>0.5774044523102448</v>
       </c>
     </row>
     <row r="14">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2581485502488778</v>
+        <v>0.2578291628179183</v>
       </c>
     </row>
     <row r="18">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1945023012157439</v>
+        <v>0.1945458175456238</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1870947806485717</v>
+        <v>0.1873328281986426</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1794044741179017</v>
+        <v>0.1796951553693074</v>
       </c>
     </row>
     <row r="25">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.122461786521515</v>
+        <v>0.1227096612284613</v>
       </c>
     </row>
     <row r="34">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01452216066669365</v>
+        <v>0.01702614064138652</v>
       </c>
     </row>
     <row r="58">
@@ -1073,7 +1073,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>R_NO2_cat_(0.0, 0.005]</t>
+          <t>R_PHAEO_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1083,7 +1083,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R_PRES_missing</t>
+          <t>R_Depth_missing</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1093,7 +1093,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R_PHAEO_cat_(0.0, 0.005]</t>
+          <t>R_NH4_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1103,7 +1103,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>R_Depth_missing</t>
+          <t>R_PRES_missing</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1113,7 +1113,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>R_NH4_cat_(0.0, 0.005]</t>
+          <t>R_NO2_cat_(0.0, 0.005]</t>
         </is>
       </c>
       <c r="B69" t="n">
